--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginValidateUnRegisterMobile.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginValidateUnRegisterMobile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12525" windowHeight="7275"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9690" windowHeight="2715"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>random_unregister</t>
+    <t>${UserInfoUtils.getUnregisterMobile()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
